--- a/Data cleaning/Changes.xlsx
+++ b/Data cleaning/Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terencetan/Documents/Uni stuff/Engineering Science/4YP/4YP-The-Future-of-Work/Data cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37595E1-7215-7547-A1F2-C17B46727C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D7DC1B-B83F-D84D-80DD-38D2525997B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="413">
   <si>
     <t>Occupation</t>
   </si>
@@ -1439,12 +1439,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
@@ -1454,19 +1448,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1807,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="200" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1822,7 +1822,7 @@
     <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="35" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1859,10 +1859,10 @@
       <c r="M1" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="27" t="s">
         <v>320</v>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       <c r="L29" s="8">
         <v>2018</v>
       </c>
-      <c r="M29" s="31" t="s">
+      <c r="M29" s="24" t="s">
         <v>299</v>
       </c>
       <c r="N29" s="8" t="s">
@@ -2986,6 +2986,9 @@
       </c>
       <c r="M30" s="8" t="s">
         <v>299</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>311</v>
@@ -3495,7 +3498,7 @@
     </row>
     <row r="43" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="25" t="s">
         <v>302</v>
       </c>
       <c r="M43" s="8" t="s">
@@ -4435,6 +4438,9 @@
       <c r="L65" s="8">
         <v>2018</v>
       </c>
+      <c r="M65" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="N65" s="8" t="s">
         <v>245</v>
       </c>
@@ -4617,7 +4623,7 @@
       <c r="N69" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="O69" s="20" t="s">
+      <c r="O69" s="28" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4632,7 +4638,7 @@
       <c r="N70" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="O70" s="22"/>
+      <c r="O70" s="30"/>
     </row>
     <row r="71" spans="1:15" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
@@ -4645,7 +4651,7 @@
       <c r="N71" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="O71" s="33"/>
+      <c r="O71" s="26"/>
     </row>
     <row r="72" spans="1:15" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
@@ -4658,7 +4664,7 @@
       <c r="N72" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="O72" s="33"/>
+      <c r="O72" s="26"/>
     </row>
     <row r="73" spans="1:15" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="7">
@@ -6144,7 +6150,7 @@
       <c r="N111" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="O111" s="34" t="s">
+      <c r="O111" s="31" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6191,7 +6197,7 @@
       <c r="N112" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="O112" s="28"/>
+      <c r="O112" s="32"/>
     </row>
     <row r="113" spans="1:15" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="7">
@@ -6236,7 +6242,7 @@
       <c r="N113" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="O113" s="29"/>
+      <c r="O113" s="33"/>
     </row>
     <row r="114" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="9">
@@ -6504,7 +6510,7 @@
     </row>
     <row r="120" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="9"/>
-      <c r="B120" s="25" t="s">
+      <c r="B120" s="21" t="s">
         <v>376</v>
       </c>
       <c r="M120" s="10" t="s">
@@ -6516,7 +6522,7 @@
     </row>
     <row r="121" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="9"/>
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="21" t="s">
         <v>377</v>
       </c>
       <c r="M121" s="10" t="s">
@@ -6528,7 +6534,7 @@
     </row>
     <row r="122" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="9"/>
-      <c r="B122" s="25" t="s">
+      <c r="B122" s="21" t="s">
         <v>378</v>
       </c>
       <c r="M122" s="10" t="s">
@@ -6540,7 +6546,7 @@
     </row>
     <row r="123" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="9"/>
-      <c r="B123" s="25" t="s">
+      <c r="B123" s="21" t="s">
         <v>379</v>
       </c>
       <c r="M123" s="10" t="s">
@@ -6552,7 +6558,7 @@
     </row>
     <row r="124" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="9"/>
-      <c r="B124" s="25" t="s">
+      <c r="B124" s="21" t="s">
         <v>380</v>
       </c>
       <c r="M124" s="10" t="s">
@@ -6564,7 +6570,7 @@
     </row>
     <row r="125" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="9"/>
-      <c r="B125" s="25" t="s">
+      <c r="B125" s="21" t="s">
         <v>381</v>
       </c>
       <c r="M125" s="10" t="s">
@@ -7023,7 +7029,7 @@
       <c r="N136" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="O136" s="34" t="s">
+      <c r="O136" s="31" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7038,7 +7044,7 @@
       <c r="N137" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="O137" s="28"/>
+      <c r="O137" s="32"/>
     </row>
     <row r="138" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
@@ -7051,7 +7057,7 @@
       <c r="N138" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="O138" s="28"/>
+      <c r="O138" s="32"/>
     </row>
     <row r="139" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
@@ -7064,7 +7070,7 @@
       <c r="N139" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="O139" s="28"/>
+      <c r="O139" s="32"/>
     </row>
     <row r="140" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7">
@@ -7109,7 +7115,7 @@
       <c r="N140" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="O140" s="28"/>
+      <c r="O140" s="32"/>
     </row>
     <row r="141" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="7">
@@ -7154,7 +7160,7 @@
       <c r="N141" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="O141" s="29"/>
+      <c r="O141" s="33"/>
     </row>
     <row r="142" spans="1:15" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="7">
@@ -7481,10 +7487,10 @@
       <c r="M149" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="N149" s="26" t="s">
+      <c r="N149" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="O149" s="27" t="s">
+      <c r="O149" s="34" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7496,10 +7502,10 @@
       <c r="M150" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="N150" s="26" t="s">
+      <c r="N150" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="O150" s="28"/>
+      <c r="O150" s="32"/>
     </row>
     <row r="151" spans="1:15" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="7">
@@ -7541,10 +7547,10 @@
       <c r="M151" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="N151" s="26" t="s">
+      <c r="N151" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="O151" s="28"/>
+      <c r="O151" s="32"/>
     </row>
     <row r="152" spans="1:15" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="7">
@@ -7586,10 +7592,10 @@
       <c r="M152" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="N152" s="26" t="s">
+      <c r="N152" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="O152" s="22"/>
+      <c r="O152" s="30"/>
     </row>
     <row r="153" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="9">
@@ -7790,7 +7796,7 @@
       <c r="N157" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="O157" s="20" t="s">
+      <c r="O157" s="28" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7805,7 +7811,7 @@
       <c r="N158" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="O158" s="21"/>
+      <c r="O158" s="29"/>
     </row>
     <row r="159" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="9"/>
@@ -7818,7 +7824,7 @@
       <c r="N159" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="O159" s="21"/>
+      <c r="O159" s="29"/>
     </row>
     <row r="160" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="9"/>
@@ -7831,7 +7837,7 @@
       <c r="N160" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="O160" s="21"/>
+      <c r="O160" s="29"/>
     </row>
     <row r="161" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="9"/>
@@ -7844,7 +7850,7 @@
       <c r="N161" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="O161" s="22"/>
+      <c r="O161" s="30"/>
     </row>
     <row r="162" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="9"/>
@@ -7857,7 +7863,7 @@
       <c r="N162" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O162" s="20" t="s">
+      <c r="O162" s="28" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7904,7 +7910,7 @@
       <c r="N163" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O163" s="21"/>
+      <c r="O163" s="29"/>
     </row>
     <row r="164" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="9">
@@ -7949,7 +7955,7 @@
       <c r="N164" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O164" s="21"/>
+      <c r="O164" s="29"/>
     </row>
     <row r="165" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="9">
@@ -7994,7 +8000,7 @@
       <c r="N165" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O165" s="21"/>
+      <c r="O165" s="29"/>
     </row>
     <row r="166" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="9">
@@ -8039,7 +8045,7 @@
       <c r="N166" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O166" s="21"/>
+      <c r="O166" s="29"/>
     </row>
     <row r="167" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="9">
@@ -8084,7 +8090,7 @@
       <c r="N167" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O167" s="21"/>
+      <c r="O167" s="29"/>
     </row>
     <row r="168" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="9">
@@ -8129,10 +8135,10 @@
       <c r="N168" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O168" s="21"/>
+      <c r="O168" s="29"/>
     </row>
     <row r="169" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="25" t="s">
+      <c r="B169" s="21" t="s">
         <v>405</v>
       </c>
       <c r="M169" s="10" t="s">
@@ -8141,10 +8147,10 @@
       <c r="N169" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O169" s="21"/>
+      <c r="O169" s="29"/>
     </row>
     <row r="170" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="25" t="s">
+      <c r="B170" s="21" t="s">
         <v>406</v>
       </c>
       <c r="M170" s="10" t="s">
@@ -8153,10 +8159,10 @@
       <c r="N170" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O170" s="21"/>
+      <c r="O170" s="29"/>
     </row>
     <row r="171" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="25" t="s">
+      <c r="B171" s="21" t="s">
         <v>407</v>
       </c>
       <c r="M171" s="10" t="s">
@@ -8165,10 +8171,10 @@
       <c r="N171" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O171" s="21"/>
+      <c r="O171" s="29"/>
     </row>
     <row r="172" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="25" t="s">
+      <c r="B172" s="21" t="s">
         <v>408</v>
       </c>
       <c r="M172" s="10" t="s">
@@ -8177,10 +8183,10 @@
       <c r="N172" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O172" s="21"/>
+      <c r="O172" s="29"/>
     </row>
     <row r="173" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="25" t="s">
+      <c r="B173" s="21" t="s">
         <v>409</v>
       </c>
       <c r="M173" s="10" t="s">
@@ -8189,10 +8195,10 @@
       <c r="N173" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O173" s="21"/>
+      <c r="O173" s="29"/>
     </row>
     <row r="174" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="25" t="s">
+      <c r="B174" s="21" t="s">
         <v>410</v>
       </c>
       <c r="M174" s="10" t="s">
@@ -8201,10 +8207,10 @@
       <c r="N174" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O174" s="21"/>
+      <c r="O174" s="29"/>
     </row>
     <row r="175" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="25" t="s">
+      <c r="B175" s="21" t="s">
         <v>411</v>
       </c>
       <c r="M175" s="10" t="s">
@@ -8213,7 +8219,7 @@
       <c r="N175" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O175" s="22"/>
+      <c r="O175" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8233,8 +8239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E545656-A54A-934E-8B26-ADE23A55A68D}">
   <dimension ref="A1:O396"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="36" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A30" zoomScale="200" zoomScaleNormal="36" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8252,7 +8258,7 @@
     <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="35" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8289,10 +8295,10 @@
       <c r="M1" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="27" t="s">
         <v>320</v>
       </c>
     </row>
@@ -8396,7 +8402,7 @@
       <c r="M4" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="11" t="s">
         <v>307</v>
       </c>
       <c r="O4" s="18" t="s">
@@ -8443,7 +8449,7 @@
       <c r="M5" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="11" t="s">
         <v>307</v>
       </c>
       <c r="O5" s="18" t="s">
@@ -11524,7 +11530,7 @@
       <c r="N77" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O77" s="20" t="s">
+      <c r="O77" s="28" t="s">
         <v>340</v>
       </c>
     </row>
@@ -11571,7 +11577,7 @@
       <c r="N78" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O78" s="21"/>
+      <c r="O78" s="29"/>
     </row>
     <row r="79" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="9">
@@ -11616,7 +11622,7 @@
       <c r="N79" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O79" s="21"/>
+      <c r="O79" s="29"/>
     </row>
     <row r="80" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="9">
@@ -11661,7 +11667,7 @@
       <c r="N80" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O80" s="22"/>
+      <c r="O80" s="30"/>
     </row>
     <row r="81" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7">
@@ -14405,6 +14411,9 @@
       <c r="M144" s="10" t="s">
         <v>321</v>
       </c>
+      <c r="N144" s="10" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="145" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="9">
@@ -14794,7 +14803,7 @@
       <c r="N158" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="O158" s="23" t="s">
+      <c r="O158" s="35" t="s">
         <v>383</v>
       </c>
     </row>
@@ -14809,10 +14818,10 @@
       <c r="N159" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="O159" s="21"/>
-    </row>
-    <row r="160" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="25" t="s">
+      <c r="O159" s="29"/>
+    </row>
+    <row r="160" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="21" t="s">
         <v>376</v>
       </c>
       <c r="M160" s="10" t="s">
@@ -14821,10 +14830,10 @@
       <c r="N160" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="O160" s="21"/>
-    </row>
-    <row r="161" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="25" t="s">
+      <c r="O160" s="29"/>
+    </row>
+    <row r="161" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="21" t="s">
         <v>377</v>
       </c>
       <c r="M161" s="10" t="s">
@@ -14833,10 +14842,10 @@
       <c r="N161" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="O161" s="21"/>
-    </row>
-    <row r="162" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="25" t="s">
+      <c r="O161" s="29"/>
+    </row>
+    <row r="162" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="21" t="s">
         <v>378</v>
       </c>
       <c r="M162" s="10" t="s">
@@ -14845,10 +14854,10 @@
       <c r="N162" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="O162" s="21"/>
-    </row>
-    <row r="163" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="25" t="s">
+      <c r="O162" s="29"/>
+    </row>
+    <row r="163" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="21" t="s">
         <v>379</v>
       </c>
       <c r="M163" s="10" t="s">
@@ -14857,10 +14866,10 @@
       <c r="N163" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="O163" s="21"/>
-    </row>
-    <row r="164" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="25" t="s">
+      <c r="O163" s="29"/>
+    </row>
+    <row r="164" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="21" t="s">
         <v>380</v>
       </c>
       <c r="M164" s="10" t="s">
@@ -14869,10 +14878,10 @@
       <c r="N164" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="O164" s="21"/>
-    </row>
-    <row r="165" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="25" t="s">
+      <c r="O164" s="29"/>
+    </row>
+    <row r="165" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="21" t="s">
         <v>381</v>
       </c>
       <c r="M165" s="10" t="s">
@@ -14881,7 +14890,7 @@
       <c r="N165" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="O165" s="22"/>
+      <c r="O165" s="30"/>
     </row>
     <row r="166" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="9">
@@ -15497,10 +15506,10 @@
       <c r="M183" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="N183" s="26" t="s">
+      <c r="N183" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="O183" s="27" t="s">
+      <c r="O183" s="34" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15512,10 +15521,10 @@
       <c r="M184" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="N184" s="26" t="s">
+      <c r="N184" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="O184" s="28"/>
+      <c r="O184" s="32"/>
     </row>
     <row r="185" spans="1:15" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A185" s="7">
@@ -15557,10 +15566,10 @@
       <c r="M185" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="N185" s="26" t="s">
+      <c r="N185" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="O185" s="29"/>
+      <c r="O185" s="33"/>
     </row>
     <row r="186" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A186" s="9"/>
@@ -15573,7 +15582,7 @@
       <c r="N186" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="O186" s="30"/>
+      <c r="O186" s="23"/>
     </row>
     <row r="187" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A187" s="9"/>
@@ -15586,7 +15595,7 @@
       <c r="N187" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="O187" s="30"/>
+      <c r="O187" s="23"/>
     </row>
     <row r="188" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A188" s="9">
@@ -15728,6 +15737,9 @@
       <c r="M191" s="10" t="s">
         <v>321</v>
       </c>
+      <c r="N191" s="10" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="192" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A192" s="9">
@@ -15772,7 +15784,7 @@
       <c r="N192" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O192" s="23" t="s">
+      <c r="O192" s="35" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15819,7 +15831,7 @@
       <c r="N193" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O193" s="21"/>
+      <c r="O193" s="29"/>
     </row>
     <row r="194" spans="1:15" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A194" s="9">
@@ -15864,10 +15876,10 @@
       <c r="N194" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O194" s="21"/>
+      <c r="O194" s="29"/>
     </row>
     <row r="195" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B195" s="25" t="s">
+      <c r="B195" s="21" t="s">
         <v>405</v>
       </c>
       <c r="M195" s="10" t="s">
@@ -15876,10 +15888,10 @@
       <c r="N195" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O195" s="21"/>
+      <c r="O195" s="29"/>
     </row>
     <row r="196" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B196" s="25" t="s">
+      <c r="B196" s="21" t="s">
         <v>406</v>
       </c>
       <c r="M196" s="10" t="s">
@@ -15888,10 +15900,10 @@
       <c r="N196" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O196" s="21"/>
+      <c r="O196" s="29"/>
     </row>
     <row r="197" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B197" s="25" t="s">
+      <c r="B197" s="21" t="s">
         <v>407</v>
       </c>
       <c r="M197" s="10" t="s">
@@ -15900,10 +15912,10 @@
       <c r="N197" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O197" s="21"/>
+      <c r="O197" s="29"/>
     </row>
     <row r="198" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B198" s="25" t="s">
+      <c r="B198" s="21" t="s">
         <v>408</v>
       </c>
       <c r="M198" s="10" t="s">
@@ -15912,10 +15924,10 @@
       <c r="N198" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O198" s="21"/>
+      <c r="O198" s="29"/>
     </row>
     <row r="199" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="25" t="s">
+      <c r="B199" s="21" t="s">
         <v>409</v>
       </c>
       <c r="M199" s="10" t="s">
@@ -15924,10 +15936,10 @@
       <c r="N199" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O199" s="21"/>
+      <c r="O199" s="29"/>
     </row>
     <row r="200" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B200" s="25" t="s">
+      <c r="B200" s="21" t="s">
         <v>410</v>
       </c>
       <c r="M200" s="10" t="s">
@@ -15936,10 +15948,10 @@
       <c r="N200" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O200" s="21"/>
+      <c r="O200" s="29"/>
     </row>
     <row r="201" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B201" s="25" t="s">
+      <c r="B201" s="21" t="s">
         <v>411</v>
       </c>
       <c r="M201" s="10" t="s">
@@ -15948,7 +15960,7 @@
       <c r="N201" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="O201" s="22"/>
+      <c r="O201" s="30"/>
     </row>
     <row r="202" spans="1:15" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="M202" s="6"/>
